--- a/ssd_api/data/deid_data_sample.xlsx
+++ b/ssd_api/data/deid_data_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flori_NUC\Documents\capstone\deid_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pata/web/ssd_server/ssd_api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A9E5F-8C1D-604F-8A3A-1A89131B7DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pt_deid" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">smart_data_deid!$A$1:$F$340</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2161,7 +2168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2479,22 +2486,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2508,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20676</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36440</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50765</v>
       </c>
@@ -2550,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>53754</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>59153</v>
       </c>
@@ -2578,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64153</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64656</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>66166</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>66172</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>66475</v>
       </c>
@@ -2654,16 +2661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>701</v>
       </c>
@@ -2689,7 +2699,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2193345</v>
       </c>
@@ -2706,7 +2716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2193346</v>
       </c>
@@ -2723,7 +2733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2193347</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2193348</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2193349</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2193350</v>
       </c>
@@ -2790,8 +2800,12 @@
       <c r="H7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f>COUNTIF(H2:H101, "=33")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2193351</v>
       </c>
@@ -2808,7 +2822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2193352</v>
       </c>
@@ -2825,7 +2839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2193353</v>
       </c>
@@ -2842,7 +2856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2193354</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1313149</v>
       </c>
@@ -2885,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1313150</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1313151</v>
       </c>
@@ -2937,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1313152</v>
       </c>
@@ -2963,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1313153</v>
       </c>
@@ -2989,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1313154</v>
       </c>
@@ -3015,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1313155</v>
       </c>
@@ -3041,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1313156</v>
       </c>
@@ -3067,7 +3081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1313157</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1313158</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1218024</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218025</v>
       </c>
@@ -3171,7 +3185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1218026</v>
       </c>
@@ -3197,7 +3211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1218027</v>
       </c>
@@ -3223,7 +3237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1218028</v>
       </c>
@@ -3249,7 +3263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1218029</v>
       </c>
@@ -3275,7 +3289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1218030</v>
       </c>
@@ -3301,7 +3315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1218031</v>
       </c>
@@ -3327,7 +3341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1218032</v>
       </c>
@@ -3353,7 +3367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1218033</v>
       </c>
@@ -3379,7 +3393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1190360</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1190361</v>
       </c>
@@ -3431,7 +3445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1190362</v>
       </c>
@@ -3457,7 +3471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1190363</v>
       </c>
@@ -3483,7 +3497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1190364</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1190365</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1190366</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1190367</v>
       </c>
@@ -3587,7 +3601,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1190368</v>
       </c>
@@ -3613,7 +3627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1190369</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1189589</v>
       </c>
@@ -3656,7 +3670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1189590</v>
       </c>
@@ -3673,7 +3687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1189591</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1189592</v>
       </c>
@@ -3707,7 +3721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1189593</v>
       </c>
@@ -3724,7 +3738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1189594</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1189595</v>
       </c>
@@ -3758,7 +3772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1189596</v>
       </c>
@@ -3775,7 +3789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1189597</v>
       </c>
@@ -3792,7 +3806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1189598</v>
       </c>
@@ -3809,7 +3823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1032181</v>
       </c>
@@ -3835,7 +3849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1032182</v>
       </c>
@@ -3861,7 +3875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1032183</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1032184</v>
       </c>
@@ -3913,7 +3927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1032185</v>
       </c>
@@ -3939,7 +3953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1032186</v>
       </c>
@@ -3965,7 +3979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1032187</v>
       </c>
@@ -3991,7 +4005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1032188</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1032189</v>
       </c>
@@ -4043,7 +4057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1032190</v>
       </c>
@@ -4069,7 +4083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>960330</v>
       </c>
@@ -4095,7 +4109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>960331</v>
       </c>
@@ -4121,7 +4135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>960332</v>
       </c>
@@ -4147,7 +4161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>960333</v>
       </c>
@@ -4173,7 +4187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>960334</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>960335</v>
       </c>
@@ -4225,7 +4239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>960336</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>960337</v>
       </c>
@@ -4277,7 +4291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>960338</v>
       </c>
@@ -4303,7 +4317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>960339</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>855924</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>855925</v>
       </c>
@@ -4381,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>855926</v>
       </c>
@@ -4407,7 +4421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>855927</v>
       </c>
@@ -4433,7 +4447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>855928</v>
       </c>
@@ -4459,7 +4473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>855929</v>
       </c>
@@ -4485,7 +4499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>855930</v>
       </c>
@@ -4511,7 +4525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>855931</v>
       </c>
@@ -4537,7 +4551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>855932</v>
       </c>
@@ -4563,7 +4577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>855933</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>357534</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>357535</v>
       </c>
@@ -4641,7 +4655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>357536</v>
       </c>
@@ -4667,7 +4681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>357537</v>
       </c>
@@ -4693,7 +4707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>357538</v>
       </c>
@@ -4719,7 +4733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>357539</v>
       </c>
@@ -4745,7 +4759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>357540</v>
       </c>
@@ -4771,7 +4785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>357541</v>
       </c>
@@ -4797,7 +4811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>357542</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>357543</v>
       </c>
@@ -4849,7 +4863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>62969</v>
       </c>
@@ -4875,7 +4889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>62970</v>
       </c>
@@ -4901,7 +4915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>62971</v>
       </c>
@@ -4927,7 +4941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>62972</v>
       </c>
@@ -4953,7 +4967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>62973</v>
       </c>
@@ -4979,7 +4993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>62974</v>
       </c>
@@ -5005,7 +5019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>62975</v>
       </c>
@@ -5031,7 +5045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>62976</v>
       </c>
@@ -5057,7 +5071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>62977</v>
       </c>
@@ -5083,7 +5097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>62978</v>
       </c>
@@ -5115,25 +5129,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>15017433</v>
       </c>
@@ -5176,7 +5190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15017434</v>
       </c>
@@ -5196,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15017435</v>
       </c>
@@ -5216,7 +5230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15017436</v>
       </c>
@@ -5236,7 +5250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15017437</v>
       </c>
@@ -5256,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15017438</v>
       </c>
@@ -5273,7 +5287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15017439</v>
       </c>
@@ -5293,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15017440</v>
       </c>
@@ -5310,7 +5324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15017441</v>
       </c>
@@ -5330,7 +5344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15017442</v>
       </c>
@@ -5347,7 +5361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9743153</v>
       </c>
@@ -5367,7 +5381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9743154</v>
       </c>
@@ -5384,7 +5398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9743155</v>
       </c>
@@ -5404,7 +5418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9743156</v>
       </c>
@@ -5424,7 +5438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9743157</v>
       </c>
@@ -5444,7 +5458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>9743158</v>
       </c>
@@ -5464,7 +5478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9743159</v>
       </c>
@@ -5484,7 +5498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9743160</v>
       </c>
@@ -5504,7 +5518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9743161</v>
       </c>
@@ -5524,7 +5538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9743162</v>
       </c>
@@ -5541,7 +5555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21695237</v>
       </c>
@@ -5558,7 +5572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21695238</v>
       </c>
@@ -5581,7 +5595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21695239</v>
       </c>
@@ -5601,7 +5615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21695240</v>
       </c>
@@ -5621,7 +5635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21695241</v>
       </c>
@@ -5641,7 +5655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21695242</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21695243</v>
       </c>
@@ -5681,7 +5695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21695244</v>
       </c>
@@ -5701,7 +5715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21695245</v>
       </c>
@@ -5724,7 +5738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21695246</v>
       </c>
@@ -5744,7 +5758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35764924</v>
       </c>
@@ -5761,7 +5775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35764925</v>
       </c>
@@ -5781,7 +5795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>35764926</v>
       </c>
@@ -5801,7 +5815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35764927</v>
       </c>
@@ -5821,7 +5835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35764928</v>
       </c>
@@ -5838,7 +5852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35764929</v>
       </c>
@@ -5855,7 +5869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35764930</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35764931</v>
       </c>
@@ -5895,7 +5909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>35764932</v>
       </c>
@@ -5915,7 +5929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>35764933</v>
       </c>
@@ -5935,7 +5949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>36252914</v>
       </c>
@@ -5955,7 +5969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>36252915</v>
       </c>
@@ -5975,7 +5989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>36252916</v>
       </c>
@@ -5995,7 +6009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>36252917</v>
       </c>
@@ -6015,7 +6029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>36252918</v>
       </c>
@@ -6035,7 +6049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>36252919</v>
       </c>
@@ -6055,7 +6069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>36252920</v>
       </c>
@@ -6075,7 +6089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>36252921</v>
       </c>
@@ -6095,7 +6109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>36252922</v>
       </c>
@@ -6115,7 +6129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>36252923</v>
       </c>
@@ -6135,7 +6149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>37779639</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>37779640</v>
       </c>
@@ -6175,7 +6189,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>37779641</v>
       </c>
@@ -6195,7 +6209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>37779642</v>
       </c>
@@ -6215,7 +6229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>37779643</v>
       </c>
@@ -6235,7 +6249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>37779644</v>
       </c>
@@ -6255,7 +6269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>37779645</v>
       </c>
@@ -6275,7 +6289,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>37779646</v>
       </c>
@@ -6295,7 +6309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>37779647</v>
       </c>
@@ -6315,7 +6329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>37779648</v>
       </c>
@@ -6335,7 +6349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>37784980</v>
       </c>
@@ -6355,7 +6369,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>37784981</v>
       </c>
@@ -6372,7 +6386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>37784982</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>37784983</v>
       </c>
@@ -6412,7 +6426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>37784984</v>
       </c>
@@ -6432,7 +6446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>37784985</v>
       </c>
@@ -6452,7 +6466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>37784986</v>
       </c>
@@ -6469,7 +6483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>37784987</v>
       </c>
@@ -6489,7 +6503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>37784988</v>
       </c>
@@ -6509,7 +6523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>37784989</v>
       </c>
@@ -6529,7 +6543,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>38045330</v>
       </c>
@@ -6549,7 +6563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38045331</v>
       </c>
@@ -6569,7 +6583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>38045332</v>
       </c>
@@ -6589,7 +6603,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>38045333</v>
       </c>
@@ -6609,7 +6623,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38045334</v>
       </c>
@@ -6629,7 +6643,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38045335</v>
       </c>
@@ -6649,7 +6663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>38045336</v>
       </c>
@@ -6669,7 +6683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>38045337</v>
       </c>
@@ -6686,7 +6700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>38045338</v>
       </c>
@@ -6706,7 +6720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>38045339</v>
       </c>
@@ -6726,7 +6740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>22198049</v>
       </c>
@@ -6749,7 +6763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22198050</v>
       </c>
@@ -6769,7 +6783,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>22198051</v>
       </c>
@@ -6789,7 +6803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>22198052</v>
       </c>
@@ -6809,7 +6823,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>22198053</v>
       </c>
@@ -6829,7 +6843,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>22198054</v>
       </c>
@@ -6849,7 +6863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>22198055</v>
       </c>
@@ -6869,7 +6883,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>22198056</v>
       </c>
@@ -6889,7 +6903,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>22198057</v>
       </c>
@@ -6909,7 +6923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>22198058</v>
       </c>
@@ -6929,7 +6943,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>30257757</v>
       </c>
@@ -6949,7 +6963,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>30257758</v>
       </c>
@@ -6969,7 +6983,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>30257759</v>
       </c>
@@ -6989,7 +7003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>30257760</v>
       </c>
@@ -7009,7 +7023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>30257761</v>
       </c>
@@ -7029,7 +7043,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>30257762</v>
       </c>
@@ -7049,7 +7063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>30257763</v>
       </c>
@@ -7069,7 +7083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>30257764</v>
       </c>
@@ -7089,7 +7103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>30257765</v>
       </c>
@@ -7109,7 +7123,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>30257766</v>
       </c>
@@ -7135,30 +7149,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36028665</v>
       </c>
@@ -7231,7 +7245,7 @@
         <v>43346.128472222219</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36028666</v>
       </c>
@@ -7266,7 +7280,7 @@
         <v>43346.128472222219</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>36028667</v>
       </c>
@@ -7301,7 +7315,7 @@
         <v>43343.209027777775</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36028668</v>
       </c>
@@ -7336,7 +7350,7 @@
         <v>43342.183333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36028669</v>
       </c>
@@ -7368,7 +7382,7 @@
         <v>43345.911111111112</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>36028670</v>
       </c>
@@ -7400,7 +7414,7 @@
         <v>43345.931250000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>36028671</v>
       </c>
@@ -7426,7 +7440,7 @@
         <v>43341.347916666666</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36028672</v>
       </c>
@@ -7452,7 +7466,7 @@
         <v>43341.347916666666</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>36028673</v>
       </c>
@@ -7478,7 +7492,7 @@
         <v>43347.436805555553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36028674</v>
       </c>
@@ -7501,7 +7515,7 @@
         <v>43341.430555555555</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>27835775</v>
       </c>
@@ -7524,7 +7538,7 @@
         <v>43201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27835776</v>
       </c>
@@ -7556,7 +7570,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>27835777</v>
       </c>
@@ -7588,7 +7602,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>27835778</v>
       </c>
@@ -7620,7 +7634,7 @@
         <v>42108.609722222223</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27835779</v>
       </c>
@@ -7652,7 +7666,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>27835780</v>
       </c>
@@ -7684,7 +7698,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27835781</v>
       </c>
@@ -7716,7 +7730,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27835782</v>
       </c>
@@ -7748,7 +7762,7 @@
         <v>41743.438888888886</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27835783</v>
       </c>
@@ -7780,7 +7794,7 @@
         <v>42835.453472222223</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27835784</v>
       </c>
@@ -7812,7 +7826,7 @@
         <v>42835.453472222223</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>44432659</v>
       </c>
@@ -7844,7 +7858,7 @@
         <v>39127.845138888886</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>44432660</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>39127.845138888886</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>44432661</v>
       </c>
@@ -7908,7 +7922,7 @@
         <v>39127.768055555556</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>44432662</v>
       </c>
@@ -7940,7 +7954,7 @@
         <v>39127.768055555556</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>44432663</v>
       </c>
@@ -7972,7 +7986,7 @@
         <v>43238.651388888888</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>44432664</v>
       </c>
@@ -7998,7 +8012,7 @@
         <v>43238.643750000003</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>44432665</v>
       </c>
@@ -8027,7 +8041,7 @@
         <v>43238.643750000003</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>44432666</v>
       </c>
@@ -8062,7 +8076,7 @@
         <v>43238.643750000003</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>44432667</v>
       </c>
@@ -8094,7 +8108,7 @@
         <v>43238.59652777778</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>44432668</v>
       </c>
@@ -8126,7 +8140,7 @@
         <v>43238.643750000003</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>64171168</v>
       </c>
@@ -8152,7 +8166,7 @@
         <v>42961.657638888886</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>64171169</v>
       </c>
@@ -8178,7 +8192,7 @@
         <v>43115.605555555558</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>64714626</v>
       </c>
@@ -8210,7 +8224,7 @@
         <v>43542.647222222222</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>64714627</v>
       </c>
@@ -8245,7 +8259,7 @@
         <v>43554.715277777781</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>64714628</v>
       </c>
@@ -8277,7 +8291,7 @@
         <v>43430.462500000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>64714629</v>
       </c>
@@ -8303,7 +8317,7 @@
         <v>43508.361111111109</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>64714630</v>
       </c>
@@ -8338,7 +8352,7 @@
         <v>43430.434027777781</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>64714631</v>
       </c>
@@ -8370,7 +8384,7 @@
         <v>42940.769548611112</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>64714632</v>
       </c>
@@ -8405,7 +8419,7 @@
         <v>43047.520138888889</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>64714633</v>
       </c>
@@ -8431,7 +8445,7 @@
         <v>43053.556944444441</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64714634</v>
       </c>
@@ -8466,7 +8480,7 @@
         <v>43059.714988425927</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>64714635</v>
       </c>
@@ -8501,7 +8515,7 @@
         <v>43052.812997685185</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>66619946</v>
       </c>
@@ -8533,7 +8547,7 @@
         <v>43933.472916666666</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>66619947</v>
       </c>
@@ -8565,7 +8579,7 @@
         <v>43936.600694444445</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>66619948</v>
       </c>
@@ -8588,7 +8602,7 @@
         <v>43931.701388888891</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>66619949</v>
       </c>
@@ -8608,7 +8622,7 @@
         <v>44001.777777777781</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>66619950</v>
       </c>
@@ -8631,7 +8645,7 @@
         <v>43932.955555555556</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>66897376</v>
       </c>
@@ -8663,7 +8677,7 @@
         <v>40217.481944444444</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>66897377</v>
       </c>
@@ -8698,7 +8712,7 @@
         <v>42595.587500000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>66897378</v>
       </c>
@@ -8730,7 +8744,7 @@
         <v>39036.659722222219</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>66897379</v>
       </c>
@@ -8762,7 +8776,7 @@
         <v>40972.563194444447</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>66897380</v>
       </c>
@@ -8794,7 +8808,7 @@
         <v>36517</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>66897381</v>
       </c>
@@ -8826,7 +8840,7 @@
         <v>39825.629166666666</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>66897382</v>
       </c>
@@ -8861,7 +8875,7 @@
         <v>42595.587500000001</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>66897383</v>
       </c>
@@ -8893,7 +8907,7 @@
         <v>40217.481944444444</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>66897384</v>
       </c>
@@ -8913,7 +8927,7 @@
         <v>39045.62222222222</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>66897385</v>
       </c>
@@ -8945,7 +8959,7 @@
         <v>39825.629166666666</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>44936979</v>
       </c>
@@ -8968,7 +8982,7 @@
         <v>40355.859722222223</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>44936980</v>
       </c>
@@ -8994,7 +9008,7 @@
         <v>40355.859722222223</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>44936981</v>
       </c>
@@ -9017,7 +9031,7 @@
         <v>40355.859722222223</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>44936982</v>
       </c>
@@ -9052,7 +9066,7 @@
         <v>43251.614618055559</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>44936983</v>
       </c>
@@ -9087,7 +9101,7 @@
         <v>43251.614618055559</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>44936984</v>
       </c>
@@ -9122,7 +9136,7 @@
         <v>42804.986817129633</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>44936985</v>
       </c>
@@ -9157,7 +9171,7 @@
         <v>42804.986828703702</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>44936986</v>
       </c>
@@ -9192,7 +9206,7 @@
         <v>42749.832916666666</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>44936987</v>
       </c>
@@ -9227,7 +9241,7 @@
         <v>42749.732060185182</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>44936988</v>
       </c>
@@ -9268,30 +9282,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>501</v>
       </c>
@@ -9332,7 +9346,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14797860</v>
       </c>
@@ -9355,7 +9369,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12435509</v>
       </c>
@@ -9390,7 +9404,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12435510</v>
       </c>
@@ -9425,7 +9439,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>12435511</v>
       </c>
@@ -9460,7 +9474,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12435512</v>
       </c>
@@ -9492,7 +9506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12435513</v>
       </c>
@@ -9521,7 +9535,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12435514</v>
       </c>
@@ -9550,7 +9564,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12435515</v>
       </c>
@@ -9585,7 +9599,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12435516</v>
       </c>
@@ -9620,7 +9634,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12435517</v>
       </c>
@@ -9655,7 +9669,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12435518</v>
       </c>
@@ -9690,7 +9704,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17072410</v>
       </c>
@@ -9722,7 +9736,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17072411</v>
       </c>
@@ -9754,7 +9768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17072412</v>
       </c>
@@ -9786,7 +9800,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17072413</v>
       </c>
@@ -9818,7 +9832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17072414</v>
       </c>
@@ -9850,7 +9864,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17072415</v>
       </c>
@@ -9885,7 +9899,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17072416</v>
       </c>
@@ -9914,7 +9928,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17072417</v>
       </c>
@@ -9952,7 +9966,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17072418</v>
       </c>
@@ -9984,7 +9998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17072419</v>
       </c>
@@ -10016,7 +10030,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17025865</v>
       </c>
@@ -10042,7 +10056,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>17025866</v>
       </c>
@@ -10080,7 +10094,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17025867</v>
       </c>
@@ -10109,7 +10123,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>17025868</v>
       </c>
@@ -10144,7 +10158,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17025869</v>
       </c>
@@ -10185,7 +10199,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>17025870</v>
       </c>
@@ -10226,7 +10240,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>17025871</v>
       </c>
@@ -10252,7 +10266,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>17025872</v>
       </c>
@@ -10290,7 +10304,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>17025873</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>17025874</v>
       </c>
@@ -10354,7 +10368,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>17024247</v>
       </c>
@@ -10386,7 +10400,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>17024248</v>
       </c>
@@ -10421,7 +10435,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17024249</v>
       </c>
@@ -10450,7 +10464,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17024250</v>
       </c>
@@ -10482,7 +10496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>17024251</v>
       </c>
@@ -10514,7 +10528,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>17024252</v>
       </c>
@@ -10543,7 +10557,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>17024253</v>
       </c>
@@ -10572,7 +10586,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17024254</v>
       </c>
@@ -10601,7 +10615,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>17024255</v>
       </c>
@@ -10633,7 +10647,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>16685200</v>
       </c>
@@ -10671,7 +10685,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>16685201</v>
       </c>
@@ -10712,7 +10726,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>16685202</v>
       </c>
@@ -10747,7 +10761,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>16685203</v>
       </c>
@@ -10785,7 +10799,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>16685204</v>
       </c>
@@ -10823,7 +10837,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>16685205</v>
       </c>
@@ -10858,7 +10872,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>16685206</v>
       </c>
@@ -10893,7 +10907,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>16685207</v>
       </c>
@@ -10928,7 +10942,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>16685208</v>
       </c>
@@ -10966,7 +10980,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>16685209</v>
       </c>
@@ -10992,7 +11006,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>16580446</v>
       </c>
@@ -11021,7 +11035,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>16580447</v>
       </c>
@@ -11050,7 +11064,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>16580448</v>
       </c>
@@ -11079,7 +11093,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>16580449</v>
       </c>
@@ -11108,7 +11122,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>16580450</v>
       </c>
@@ -11131,7 +11145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16580451</v>
       </c>
@@ -11160,7 +11174,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>16580452</v>
       </c>
@@ -11189,7 +11203,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>16580453</v>
       </c>
@@ -11218,7 +11232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>16580454</v>
       </c>
@@ -11247,7 +11261,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>16580455</v>
       </c>
@@ -11282,7 +11296,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12321004</v>
       </c>
@@ -11317,7 +11331,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>12321005</v>
       </c>
@@ -11352,7 +11366,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>12321006</v>
       </c>
@@ -11372,7 +11386,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>12321007</v>
       </c>
@@ -11407,7 +11421,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12321008</v>
       </c>
@@ -11442,7 +11456,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>12321009</v>
       </c>
@@ -11477,7 +11491,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12321010</v>
       </c>
@@ -11509,7 +11523,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>12321011</v>
       </c>
@@ -11544,7 +11558,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>12321012</v>
       </c>
@@ -11579,7 +11593,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>12321013</v>
       </c>
@@ -11599,7 +11613,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6673492</v>
       </c>
@@ -11631,7 +11645,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6673493</v>
       </c>
@@ -11663,7 +11677,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6673494</v>
       </c>
@@ -11692,7 +11706,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6673495</v>
       </c>
@@ -11727,7 +11741,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6673496</v>
       </c>
@@ -11756,7 +11770,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6673497</v>
       </c>
@@ -11788,7 +11802,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6673498</v>
       </c>
@@ -11808,7 +11822,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6673499</v>
       </c>
@@ -11843,7 +11857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6673500</v>
       </c>
@@ -11878,7 +11892,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6673501</v>
       </c>
@@ -11910,7 +11924,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10155546</v>
       </c>
@@ -11933,7 +11947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10155547</v>
       </c>
@@ -11953,7 +11967,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10155548</v>
       </c>
@@ -11973,7 +11987,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10155549</v>
       </c>
@@ -12011,7 +12025,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10155550</v>
       </c>
@@ -12034,7 +12048,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10155551</v>
       </c>
@@ -12057,7 +12071,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10155552</v>
       </c>
@@ -12092,7 +12106,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10155553</v>
       </c>
@@ -12115,7 +12129,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10155554</v>
       </c>
@@ -12135,7 +12149,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10155555</v>
       </c>
@@ -12164,29 +12178,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>517</v>
       </c>
@@ -12221,7 +12235,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>14905827</v>
       </c>
@@ -12249,7 +12263,7 @@
         <v>17072457</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>14905828</v>
       </c>
@@ -12277,7 +12291,7 @@
         <v>17072435</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>14905829</v>
       </c>
@@ -12304,7 +12318,7 @@
         <v>17072463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14905830</v>
       </c>
@@ -12331,7 +12345,7 @@
         <v>17072512</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14905831</v>
       </c>
@@ -12358,7 +12372,7 @@
         <v>17072481</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14905832</v>
       </c>
@@ -12385,7 +12399,7 @@
         <v>17072496</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14905833</v>
       </c>
@@ -12412,7 +12426,7 @@
         <v>17072477</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14905834</v>
       </c>
@@ -12439,7 +12453,7 @@
         <v>17072485</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14905835</v>
       </c>
@@ -12466,7 +12480,7 @@
         <v>17072413</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14905836</v>
       </c>
@@ -12493,7 +12507,7 @@
         <v>17072419</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14870944</v>
       </c>
@@ -12523,7 +12537,7 @@
         <v>17025867</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>14870945</v>
       </c>
@@ -12553,7 +12567,7 @@
         <v>17025878</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14870946</v>
       </c>
@@ -12583,7 +12597,7 @@
         <v>17025873</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14870947</v>
       </c>
@@ -12613,7 +12627,7 @@
         <v>17025877</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14600708</v>
       </c>
@@ -12641,7 +12655,7 @@
         <v>16685307</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14600709</v>
       </c>
@@ -12669,7 +12683,7 @@
         <v>16685231</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14600710</v>
       </c>
@@ -12697,7 +12711,7 @@
         <v>16685258</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14600711</v>
       </c>
@@ -12725,7 +12739,7 @@
         <v>16685211</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14600712</v>
       </c>
@@ -12753,7 +12767,7 @@
         <v>16685309</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>14600713</v>
       </c>
@@ -12781,7 +12795,7 @@
         <v>16685488</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14600714</v>
       </c>
@@ -12809,7 +12823,7 @@
         <v>16685228</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14600715</v>
       </c>
@@ -12839,7 +12853,7 @@
         <v>16685245</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14600716</v>
       </c>
@@ -12867,7 +12881,7 @@
         <v>16685308</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>14600717</v>
       </c>
@@ -12895,7 +12909,7 @@
         <v>16685525</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14512267</v>
       </c>
@@ -12925,7 +12939,7 @@
         <v>16580446</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14512268</v>
       </c>
@@ -12955,7 +12969,7 @@
         <v>16580449</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14512269</v>
       </c>
@@ -12985,7 +12999,7 @@
         <v>16580448</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14512270</v>
       </c>
@@ -13015,7 +13029,7 @@
         <v>16580454</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10802422</v>
       </c>
@@ -13047,7 +13061,7 @@
         <v>12321023</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10802423</v>
       </c>
@@ -13079,7 +13093,7 @@
         <v>12321025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10802424</v>
       </c>
@@ -13111,7 +13125,7 @@
         <v>12321038</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10802425</v>
       </c>
@@ -13143,7 +13157,7 @@
         <v>12321032</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7856225</v>
       </c>
@@ -13175,7 +13189,7 @@
         <v>6673503</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7856226</v>
       </c>
@@ -13207,7 +13221,7 @@
         <v>6673503</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7856227</v>
       </c>
@@ -13239,7 +13253,7 @@
         <v>6673541</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7856228</v>
       </c>
@@ -13271,7 +13285,7 @@
         <v>6673541</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7856229</v>
       </c>
@@ -13303,7 +13317,7 @@
         <v>6673577</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7856230</v>
       </c>
@@ -13335,7 +13349,7 @@
         <v>6673591</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7856231</v>
       </c>
@@ -13367,7 +13381,7 @@
         <v>6673591</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7856232</v>
       </c>
@@ -13399,7 +13413,7 @@
         <v>6673914</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7856233</v>
       </c>
@@ -13431,7 +13445,7 @@
         <v>6673914</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7856234</v>
       </c>
@@ -13461,7 +13475,7 @@
         <v>6673496</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9504992</v>
       </c>
@@ -13489,7 +13503,7 @@
         <v>10155799</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9504993</v>
       </c>
@@ -13517,7 +13531,7 @@
         <v>10156801</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9504994</v>
       </c>
@@ -13545,7 +13559,7 @@
         <v>10155917</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9504995</v>
       </c>
@@ -13573,7 +13587,7 @@
         <v>10157894</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9504996</v>
       </c>
@@ -13601,7 +13615,7 @@
         <v>10156653</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9504997</v>
       </c>
@@ -13629,7 +13643,7 @@
         <v>10157756</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9504998</v>
       </c>
@@ -13657,7 +13671,7 @@
         <v>10156873</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9504999</v>
       </c>
@@ -13685,7 +13699,7 @@
         <v>10157320</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9505000</v>
       </c>
@@ -13713,7 +13727,7 @@
         <v>10156560</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9505001</v>
       </c>
@@ -13747,24 +13761,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>582</v>
       </c>
@@ -13784,7 +13798,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>23766261</v>
       </c>
@@ -13801,7 +13815,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>23766570</v>
       </c>
@@ -13818,7 +13832,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>23768223</v>
       </c>
@@ -13835,7 +13849,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23768224</v>
       </c>
@@ -13852,7 +13866,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23768424</v>
       </c>
@@ -13869,7 +13883,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23768718</v>
       </c>
@@ -13886,7 +13900,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>23768720</v>
       </c>
@@ -13903,7 +13917,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>23769214</v>
       </c>
@@ -13920,7 +13934,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>23769266</v>
       </c>
@@ -13937,7 +13951,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>23773081</v>
       </c>
@@ -13954,7 +13968,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>23773161</v>
       </c>
@@ -13971,7 +13985,7 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23778631</v>
       </c>
@@ -13988,7 +14002,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23778632</v>
       </c>
@@ -14005,7 +14019,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23778652</v>
       </c>
@@ -14022,7 +14036,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>23778656</v>
       </c>
@@ -14039,7 +14053,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>24523647</v>
       </c>
@@ -14056,7 +14070,7 @@
         <v>42471</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24523653</v>
       </c>
@@ -14073,7 +14087,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24523709</v>
       </c>
@@ -14090,7 +14104,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24523755</v>
       </c>
@@ -14107,7 +14121,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24523756</v>
       </c>
@@ -14124,7 +14138,7 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>24523795</v>
       </c>
@@ -14141,7 +14155,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24523808</v>
       </c>
@@ -14158,7 +14172,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24523809</v>
       </c>
@@ -14175,7 +14189,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24523886</v>
       </c>
@@ -14192,7 +14206,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24523908</v>
       </c>
@@ -14209,7 +14223,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24523909</v>
       </c>
@@ -14226,7 +14240,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24523961</v>
       </c>
@@ -14243,7 +14257,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>24524017</v>
       </c>
@@ -14260,7 +14274,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24524026</v>
       </c>
@@ -14277,7 +14291,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24524048</v>
       </c>
@@ -14294,7 +14308,7 @@
         <v>42471</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24524083</v>
       </c>
@@ -14311,7 +14325,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>24524094</v>
       </c>
@@ -14328,7 +14342,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>24524119</v>
       </c>
@@ -14345,7 +14359,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>24524135</v>
       </c>
@@ -14362,7 +14376,7 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>24524209</v>
       </c>
@@ -14379,7 +14393,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>24524235</v>
       </c>
@@ -14396,7 +14410,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>24524243</v>
       </c>
@@ -14413,7 +14427,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>24524286</v>
       </c>
@@ -14430,7 +14444,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>24524290</v>
       </c>
@@ -14447,7 +14461,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24524304</v>
       </c>
@@ -14464,7 +14478,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24524359</v>
       </c>
@@ -14481,7 +14495,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>24524377</v>
       </c>
@@ -14498,7 +14512,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>24524406</v>
       </c>
@@ -14515,7 +14529,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24524434</v>
       </c>
@@ -14532,7 +14546,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24524446</v>
       </c>
@@ -14549,7 +14563,7 @@
         <v>41962</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24524447</v>
       </c>
@@ -14566,7 +14580,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24524493</v>
       </c>
@@ -14583,7 +14597,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24524518</v>
       </c>
@@ -14600,7 +14614,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24524547</v>
       </c>
@@ -14617,7 +14631,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>24524548</v>
       </c>
@@ -14634,7 +14648,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>24524556</v>
       </c>
@@ -14651,7 +14665,7 @@
         <v>41794</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>24524695</v>
       </c>
@@ -14668,7 +14682,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>24524805</v>
       </c>
@@ -14685,7 +14699,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>24524882</v>
       </c>
@@ -14702,7 +14716,7 @@
         <v>41794</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>24525059</v>
       </c>
@@ -14719,7 +14733,7 @@
         <v>41962</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>24525067</v>
       </c>
@@ -14736,7 +14750,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>24526737</v>
       </c>
@@ -14753,7 +14767,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>24526806</v>
       </c>
@@ -14770,7 +14784,7 @@
         <v>41362</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>24526830</v>
       </c>
@@ -14787,7 +14801,7 @@
         <v>41362</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>24526848</v>
       </c>
@@ -14804,7 +14818,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>24526957</v>
       </c>
@@ -14821,7 +14835,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>24527128</v>
       </c>
@@ -14838,7 +14852,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>24527174</v>
       </c>
@@ -14855,7 +14869,7 @@
         <v>40994</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>24527181</v>
       </c>
@@ -14872,7 +14886,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>24527226</v>
       </c>
@@ -14889,7 +14903,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>24527234</v>
       </c>
@@ -14906,7 +14920,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>24527242</v>
       </c>
@@ -14923,7 +14937,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>24527294</v>
       </c>
@@ -14940,7 +14954,7 @@
         <v>40994</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>24527379</v>
       </c>
@@ -14957,7 +14971,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>24527414</v>
       </c>
@@ -14974,7 +14988,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24527416</v>
       </c>
@@ -14991,7 +15005,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>24527478</v>
       </c>
@@ -15008,7 +15022,7 @@
         <v>41311</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>24527566</v>
       </c>
@@ -15025,7 +15039,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>24527595</v>
       </c>
@@ -15042,7 +15056,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>24527718</v>
       </c>
@@ -15059,7 +15073,7 @@
         <v>40637</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>24527727</v>
       </c>
@@ -15076,7 +15090,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>24527780</v>
       </c>
@@ -15093,7 +15107,7 @@
         <v>39274</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>24527781</v>
       </c>
@@ -15110,7 +15124,7 @@
         <v>39274</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>24527796</v>
       </c>
@@ -15127,7 +15141,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>24527804</v>
       </c>
@@ -15144,7 +15158,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>24527805</v>
       </c>
@@ -15161,7 +15175,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>24527834</v>
       </c>
@@ -15178,7 +15192,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>24527835</v>
       </c>
@@ -15195,7 +15209,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24527857</v>
       </c>
@@ -15212,7 +15226,7 @@
         <v>40637</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>24527863</v>
       </c>
@@ -15229,7 +15243,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>24527887</v>
       </c>
@@ -15246,7 +15260,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>24527900</v>
       </c>
@@ -15263,7 +15277,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>24527919</v>
       </c>
@@ -15280,7 +15294,7 @@
         <v>40245</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>24527991</v>
       </c>
@@ -15297,7 +15311,7 @@
         <v>39507</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>24527997</v>
       </c>
@@ -15314,7 +15328,7 @@
         <v>39860</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>24527998</v>
       </c>
@@ -15331,7 +15345,7 @@
         <v>39860</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>24528019</v>
       </c>
@@ -15348,7 +15362,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>24528032</v>
       </c>
@@ -15365,7 +15379,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>24528036</v>
       </c>
@@ -15382,7 +15396,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>24528069</v>
       </c>
@@ -15399,7 +15413,7 @@
         <v>39426</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>24528079</v>
       </c>
@@ -15416,7 +15430,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>24528081</v>
       </c>
@@ -15433,7 +15447,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>24528087</v>
       </c>
@@ -15450,7 +15464,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>24528088</v>
       </c>
@@ -15467,7 +15481,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>24528114</v>
       </c>
@@ -15484,7 +15498,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>24528157</v>
       </c>
@@ -15501,7 +15515,7 @@
         <v>40368</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>24528166</v>
       </c>
@@ -15518,7 +15532,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>24528186</v>
       </c>
@@ -15535,7 +15549,7 @@
         <v>40427</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>24528191</v>
       </c>
@@ -15552,7 +15566,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>24528192</v>
       </c>
@@ -15569,7 +15583,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>24528217</v>
       </c>
@@ -15586,7 +15600,7 @@
         <v>39461</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>24528225</v>
       </c>
@@ -15603,7 +15617,7 @@
         <v>39461</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>24528226</v>
       </c>
@@ -15620,7 +15634,7 @@
         <v>39794</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>24528253</v>
       </c>
@@ -15637,7 +15651,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>24528255</v>
       </c>
@@ -15654,7 +15668,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>24528280</v>
       </c>
@@ -15671,7 +15685,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>24528316</v>
       </c>
@@ -15688,7 +15702,7 @@
         <v>40494</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>24528333</v>
       </c>
@@ -15705,7 +15719,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>24528414</v>
       </c>
@@ -15722,7 +15736,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>24528419</v>
       </c>
@@ -15739,7 +15753,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>24528477</v>
       </c>
@@ -15756,7 +15770,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>24528479</v>
       </c>
@@ -15773,7 +15787,7 @@
         <v>40245</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>24528514</v>
       </c>
@@ -15790,7 +15804,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>24528515</v>
       </c>
@@ -15807,7 +15821,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>24528520</v>
       </c>
@@ -15824,7 +15838,7 @@
         <v>39794</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>24528561</v>
       </c>
@@ -15841,7 +15855,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>24528563</v>
       </c>
@@ -15858,7 +15872,7 @@
         <v>40065</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>24529673</v>
       </c>
@@ -15875,7 +15889,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>24530037</v>
       </c>
@@ -15892,7 +15906,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>24530204</v>
       </c>
@@ -15909,7 +15923,7 @@
         <v>41920</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>24531741</v>
       </c>
@@ -15926,7 +15940,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>24532691</v>
       </c>
@@ -15943,7 +15957,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>24532692</v>
       </c>
@@ -15960,7 +15974,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>24532941</v>
       </c>
@@ -15977,7 +15991,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>24533775</v>
       </c>
@@ -15994,7 +16008,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>24533776</v>
       </c>
@@ -16011,7 +16025,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>24535770</v>
       </c>
@@ -16028,7 +16042,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>24535771</v>
       </c>
@@ -16045,7 +16059,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>24536233</v>
       </c>
@@ -16062,7 +16076,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>24536234</v>
       </c>
@@ -16079,7 +16093,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>24536433</v>
       </c>
@@ -16096,7 +16110,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>24536434</v>
       </c>
@@ -16113,7 +16127,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>24537501</v>
       </c>
@@ -16130,7 +16144,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>24537502</v>
       </c>
@@ -16147,7 +16161,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>24537530</v>
       </c>
@@ -16164,7 +16178,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>24537535</v>
       </c>
@@ -16181,7 +16195,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>24537537</v>
       </c>
@@ -16198,7 +16212,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>24537640</v>
       </c>
@@ -16215,7 +16229,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>24537641</v>
       </c>
@@ -16232,7 +16246,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>24537953</v>
       </c>
@@ -16249,7 +16263,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>24537954</v>
       </c>
@@ -16266,7 +16280,7 @@
         <v>43159</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>24538381</v>
       </c>
@@ -16283,7 +16297,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>24538382</v>
       </c>
@@ -16300,7 +16314,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>24538570</v>
       </c>
@@ -16317,7 +16331,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>24538571</v>
       </c>
@@ -16334,7 +16348,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>24538683</v>
       </c>
@@ -16351,7 +16365,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>24538684</v>
       </c>
@@ -16368,7 +16382,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>24538800</v>
       </c>
@@ -16385,7 +16399,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>24538801</v>
       </c>
@@ -16402,7 +16416,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>30054141</v>
       </c>
@@ -16419,7 +16433,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>30054338</v>
       </c>
@@ -16436,7 +16450,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>30054342</v>
       </c>
@@ -16453,7 +16467,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>30054345</v>
       </c>
@@ -16470,7 +16484,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>30054367</v>
       </c>
@@ -16487,7 +16501,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>30054370</v>
       </c>
@@ -16504,7 +16518,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>30054381</v>
       </c>
@@ -16521,7 +16535,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>30054405</v>
       </c>
@@ -16538,7 +16552,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>30054533</v>
       </c>
@@ -16555,7 +16569,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>30054943</v>
       </c>
@@ -16572,7 +16586,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>30055086</v>
       </c>
@@ -16589,7 +16603,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>30055336</v>
       </c>
@@ -16606,7 +16620,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>30055463</v>
       </c>
@@ -16623,7 +16637,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>30055464</v>
       </c>
@@ -16640,7 +16654,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>30055520</v>
       </c>
@@ -16657,7 +16671,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>30055722</v>
       </c>
@@ -16674,7 +16688,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>30055724</v>
       </c>
@@ -16691,7 +16705,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>30055891</v>
       </c>
@@ -16708,7 +16722,7 @@
         <v>43658</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>30057769</v>
       </c>
@@ -16725,7 +16739,7 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>30058183</v>
       </c>
@@ -16742,7 +16756,7 @@
         <v>40948</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>30058266</v>
       </c>
@@ -16759,7 +16773,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>30058448</v>
       </c>
@@ -16776,7 +16790,7 @@
         <v>40145</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>30058499</v>
       </c>
@@ -16793,7 +16807,7 @@
         <v>40871</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>30058652</v>
       </c>
@@ -16810,7 +16824,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>30058708</v>
       </c>
@@ -16827,7 +16841,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>30059343</v>
       </c>
@@ -16844,7 +16858,7 @@
         <v>40507</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>30059348</v>
       </c>
@@ -16861,7 +16875,7 @@
         <v>40871</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>30059420</v>
       </c>
@@ -16878,7 +16892,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>30059577</v>
       </c>
@@ -16895,7 +16909,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>30059612</v>
       </c>
@@ -16912,7 +16926,7 @@
         <v>40507</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>30059640</v>
       </c>
@@ -16929,7 +16943,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>30059937</v>
       </c>
@@ -16946,7 +16960,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>30059946</v>
       </c>
@@ -16963,7 +16977,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>30059969</v>
       </c>
@@ -16980,7 +16994,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>30059970</v>
       </c>
@@ -16997,7 +17011,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>30060073</v>
       </c>
@@ -17014,7 +17028,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>30060076</v>
       </c>
@@ -17031,7 +17045,7 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>30060096</v>
       </c>
@@ -17048,7 +17062,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>30060108</v>
       </c>
@@ -17065,7 +17079,7 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>30060169</v>
       </c>
@@ -17082,7 +17096,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>30060182</v>
       </c>
@@ -17099,7 +17113,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>30060190</v>
       </c>
@@ -17116,7 +17130,7 @@
         <v>41038</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>30060295</v>
       </c>
@@ -17133,7 +17147,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>30060311</v>
       </c>
@@ -17150,7 +17164,7 @@
         <v>40145</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>30060890</v>
       </c>
@@ -17167,7 +17181,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>30061018</v>
       </c>
@@ -17184,7 +17198,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>30061203</v>
       </c>
@@ -17201,7 +17215,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>30061317</v>
       </c>
@@ -17218,7 +17232,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>30061320</v>
       </c>
@@ -17235,7 +17249,7 @@
         <v>43158</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>30066540</v>
       </c>
@@ -17252,7 +17266,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>30067837</v>
       </c>
@@ -17269,7 +17283,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>30068663</v>
       </c>
@@ -17286,7 +17300,7 @@
         <v>40871</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>30068781</v>
       </c>
@@ -17303,7 +17317,7 @@
         <v>40871</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>30073163</v>
       </c>
@@ -17320,7 +17334,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>34273424</v>
       </c>
@@ -17337,7 +17351,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>34274492</v>
       </c>
@@ -17354,7 +17368,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>34287867</v>
       </c>
@@ -17371,7 +17385,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>34287868</v>
       </c>
@@ -17388,7 +17402,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>39025283</v>
       </c>
@@ -17405,7 +17419,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>39025349</v>
       </c>
@@ -17422,7 +17436,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>40692938</v>
       </c>
@@ -17439,7 +17453,7 @@
         <v>42960</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>40692939</v>
       </c>
@@ -17456,7 +17470,7 @@
         <v>42960</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>40693451</v>
       </c>
@@ -17473,7 +17487,7 @@
         <v>42988</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>40694488</v>
       </c>
@@ -17490,7 +17504,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>40694489</v>
       </c>
@@ -17507,7 +17521,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>40695178</v>
       </c>
@@ -17524,7 +17538,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>40856160</v>
       </c>
@@ -17541,7 +17555,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>40856193</v>
       </c>
@@ -17558,7 +17572,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>40856200</v>
       </c>
@@ -17575,7 +17589,7 @@
         <v>43078</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>40856201</v>
       </c>
@@ -17592,7 +17606,7 @@
         <v>43078</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>40856216</v>
       </c>
@@ -17609,7 +17623,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>40856222</v>
       </c>
@@ -17626,7 +17640,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>40856244</v>
       </c>
@@ -17643,7 +17657,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>40856252</v>
       </c>
@@ -17660,7 +17674,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>40856260</v>
       </c>
@@ -17677,7 +17691,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>40856292</v>
       </c>
@@ -17694,7 +17708,7 @@
         <v>43183</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>40856293</v>
       </c>
@@ -17711,7 +17725,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>40856298</v>
       </c>
@@ -17728,7 +17742,7 @@
         <v>43169</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>40856299</v>
       </c>
@@ -17745,7 +17759,7 @@
         <v>43169</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>40856325</v>
       </c>
@@ -17762,7 +17776,7 @@
         <v>43061</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>40856346</v>
       </c>
@@ -17779,7 +17793,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>40856348</v>
       </c>
@@ -17796,7 +17810,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>40856357</v>
       </c>
@@ -17813,7 +17827,7 @@
         <v>43078</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>40856358</v>
       </c>
@@ -17830,7 +17844,7 @@
         <v>43078</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>40856364</v>
       </c>
@@ -17847,7 +17861,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>40856381</v>
       </c>
@@ -17864,7 +17878,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>40856392</v>
       </c>
@@ -17881,7 +17895,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>40856393</v>
       </c>
@@ -17898,7 +17912,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>40856394</v>
       </c>
@@ -17915,7 +17929,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>40856395</v>
       </c>
@@ -17932,7 +17946,7 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>40856420</v>
       </c>
@@ -17949,7 +17963,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>40856437</v>
       </c>
@@ -17966,7 +17980,7 @@
         <v>43169</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>40856438</v>
       </c>
@@ -17983,7 +17997,7 @@
         <v>43169</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>40856446</v>
       </c>
@@ -18000,7 +18014,7 @@
         <v>43183</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>40856467</v>
       </c>
@@ -18017,7 +18031,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>40856498</v>
       </c>
@@ -18034,7 +18048,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>40856499</v>
       </c>
@@ -18051,7 +18065,7 @@
         <v>43087</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>40856534</v>
       </c>
@@ -18068,7 +18082,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>40856559</v>
       </c>
@@ -18085,7 +18099,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>40857727</v>
       </c>
@@ -18102,7 +18116,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>40857728</v>
       </c>
@@ -18119,7 +18133,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>40857888</v>
       </c>
@@ -18136,7 +18150,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>40857889</v>
       </c>
@@ -18153,7 +18167,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>40857919</v>
       </c>
@@ -18170,7 +18184,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>40857920</v>
       </c>
@@ -18187,7 +18201,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>40857933</v>
       </c>
@@ -18204,7 +18218,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>40857968</v>
       </c>
@@ -18221,7 +18235,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>40857969</v>
       </c>
@@ -18238,7 +18252,7 @@
         <v>43515</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>40858939</v>
       </c>
@@ -18255,7 +18269,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>40858940</v>
       </c>
@@ -18272,7 +18286,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>40858941</v>
       </c>
@@ -18289,7 +18303,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>40858942</v>
       </c>
@@ -18306,7 +18320,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>40859470</v>
       </c>
@@ -18323,7 +18337,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>40859471</v>
       </c>
@@ -18340,7 +18354,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>40859620</v>
       </c>
@@ -18357,7 +18371,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>40859621</v>
       </c>
@@ -18374,7 +18388,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>40859693</v>
       </c>
@@ -18391,7 +18405,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>40859694</v>
       </c>
@@ -18408,7 +18422,7 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>40859955</v>
       </c>
@@ -18425,7 +18439,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>40859956</v>
       </c>
@@ -18442,7 +18456,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>40859957</v>
       </c>
@@ -18459,7 +18473,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>40860126</v>
       </c>
@@ -18476,7 +18490,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>40860127</v>
       </c>
@@ -18493,7 +18507,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>40860243</v>
       </c>
@@ -18510,7 +18524,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>40860244</v>
       </c>
@@ -18527,7 +18541,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>41341933</v>
       </c>
@@ -18544,7 +18558,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>41341936</v>
       </c>
@@ -18561,7 +18575,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>41342232</v>
       </c>
@@ -18578,7 +18592,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>41342233</v>
       </c>
@@ -18595,7 +18609,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>41342367</v>
       </c>
@@ -18612,7 +18626,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>41342368</v>
       </c>
@@ -18629,7 +18643,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>41342737</v>
       </c>
@@ -18646,7 +18660,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>41342738</v>
       </c>
@@ -18663,7 +18677,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>41343078</v>
       </c>
@@ -18680,7 +18694,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>41343079</v>
       </c>
@@ -18697,7 +18711,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>41343427</v>
       </c>
@@ -18714,7 +18728,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>41343428</v>
       </c>
@@ -18731,7 +18745,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>41343429</v>
       </c>
@@ -18748,7 +18762,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>41343430</v>
       </c>
@@ -18765,7 +18779,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>41343438</v>
       </c>
@@ -18782,7 +18796,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>41343441</v>
       </c>
@@ -18799,7 +18813,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>41343605</v>
       </c>
@@ -18816,7 +18830,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>41343606</v>
       </c>
@@ -18833,7 +18847,7 @@
         <v>43490</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>41343684</v>
       </c>
@@ -18850,7 +18864,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>41343685</v>
       </c>
@@ -18867,7 +18881,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>41343917</v>
       </c>
@@ -18884,7 +18898,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>41343918</v>
       </c>
@@ -18901,7 +18915,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>41343919</v>
       </c>
@@ -18918,7 +18932,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>41343920</v>
       </c>
@@ -18935,7 +18949,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>41343921</v>
       </c>
@@ -18952,7 +18966,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>41343922</v>
       </c>
@@ -18969,7 +18983,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>41344006</v>
       </c>
@@ -18986,7 +19000,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>41344007</v>
       </c>
@@ -19003,7 +19017,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>41344214</v>
       </c>
@@ -19020,7 +19034,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>41344215</v>
       </c>
@@ -19037,7 +19051,7 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>41344278</v>
       </c>
@@ -19054,7 +19068,7 @@
         <v>44125</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>41344279</v>
       </c>
@@ -19071,7 +19085,7 @@
         <v>44125</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>41344344</v>
       </c>
@@ -19088,7 +19102,7 @@
         <v>44126</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>41344416</v>
       </c>
@@ -19102,7 +19116,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>41344417</v>
       </c>
@@ -19119,7 +19133,7 @@
         <v>44126</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>41344467</v>
       </c>
@@ -19136,7 +19150,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>41344468</v>
       </c>
@@ -19153,7 +19167,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>41344469</v>
       </c>
@@ -19170,7 +19184,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>41344559</v>
       </c>
@@ -19187,7 +19201,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>41344560</v>
       </c>
@@ -19204,7 +19218,7 @@
         <v>44140</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>41344742</v>
       </c>
@@ -19221,7 +19235,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>41344746</v>
       </c>
@@ -19238,7 +19252,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>41344750</v>
       </c>
@@ -19255,7 +19269,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>41344751</v>
       </c>
@@ -19272,7 +19286,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>41344826</v>
       </c>
@@ -19289,7 +19303,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>41344831</v>
       </c>
@@ -19306,7 +19320,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>41344834</v>
       </c>
@@ -19323,7 +19337,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>41344835</v>
       </c>
@@ -19340,7 +19354,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>41344838</v>
       </c>
@@ -19357,7 +19371,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>41344839</v>
       </c>
@@ -19374,7 +19388,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>41436519</v>
       </c>
@@ -19391,7 +19405,7 @@
         <v>41773</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>41436520</v>
       </c>
@@ -19408,7 +19422,7 @@
         <v>41773</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>41436590</v>
       </c>
@@ -19425,7 +19439,7 @@
         <v>41773</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>41436591</v>
       </c>
@@ -19442,7 +19456,7 @@
         <v>41773</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>41437443</v>
       </c>
@@ -19459,7 +19473,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>41437444</v>
       </c>
@@ -19476,7 +19490,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>41437473</v>
       </c>
@@ -19493,7 +19507,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>41437474</v>
       </c>
@@ -19510,7 +19524,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>41437478</v>
       </c>
@@ -19527,7 +19541,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>41437479</v>
       </c>
@@ -19550,26 +19564,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>638</v>
       </c>
@@ -19598,7 +19612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3358779</v>
       </c>
@@ -19627,7 +19641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3358778</v>
       </c>
@@ -19656,7 +19670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2571099</v>
       </c>
@@ -19685,7 +19699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2571100</v>
       </c>
@@ -19714,7 +19728,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2571101</v>
       </c>
@@ -19743,7 +19757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2571102</v>
       </c>
@@ -19772,7 +19786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2571103</v>
       </c>
@@ -19801,7 +19815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2571104</v>
       </c>
@@ -19830,7 +19844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2571105</v>
       </c>
@@ -19859,7 +19873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2571106</v>
       </c>
@@ -19888,7 +19902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2571107</v>
       </c>
@@ -19917,7 +19931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2571108</v>
       </c>
@@ -19946,7 +19960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4128064</v>
       </c>
@@ -19975,7 +19989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4128063</v>
       </c>
@@ -20004,7 +20018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4128062</v>
       </c>
@@ -20033,7 +20047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4128061</v>
       </c>
@@ -20062,7 +20076,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4128060</v>
       </c>
@@ -20091,7 +20105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4128059</v>
       </c>
@@ -20120,7 +20134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4128058</v>
       </c>
@@ -20149,7 +20163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4128057</v>
       </c>
@@ -20178,7 +20192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4128056</v>
       </c>
@@ -20207,7 +20221,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4128055</v>
       </c>
@@ -20236,7 +20250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3955298</v>
       </c>
@@ -20265,7 +20279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3955299</v>
       </c>
@@ -20294,7 +20308,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3955300</v>
       </c>
@@ -20320,7 +20334,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3955301</v>
       </c>
@@ -20349,7 +20363,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3955302</v>
       </c>
@@ -20378,7 +20392,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3955303</v>
       </c>
@@ -20407,7 +20421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3955304</v>
       </c>
@@ -20436,7 +20450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3955305</v>
       </c>
@@ -20465,7 +20479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3955306</v>
       </c>
@@ -20494,7 +20508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3955307</v>
       </c>
@@ -20523,7 +20537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2525078</v>
       </c>
@@ -20552,7 +20566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2525077</v>
       </c>
@@ -20581,7 +20595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2525076</v>
       </c>
@@ -20610,7 +20624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2525075</v>
       </c>
@@ -20639,7 +20653,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2525074</v>
       </c>
@@ -20668,7 +20682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2525073</v>
       </c>
@@ -20697,7 +20711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2525072</v>
       </c>
@@ -20726,7 +20740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2525071</v>
       </c>
@@ -20755,7 +20769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2525070</v>
       </c>
@@ -20784,7 +20798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2525069</v>
       </c>
@@ -20813,7 +20827,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1409941</v>
       </c>
@@ -20842,7 +20856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1409942</v>
       </c>
@@ -20871,7 +20885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1409943</v>
       </c>
@@ -20900,7 +20914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1409944</v>
       </c>
@@ -20929,7 +20943,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1409945</v>
       </c>
@@ -20958,7 +20972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1409946</v>
       </c>
@@ -20987,7 +21001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1409947</v>
       </c>
@@ -21016,7 +21030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1409948</v>
       </c>
@@ -21045,7 +21059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1409949</v>
       </c>
@@ -21074,7 +21088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1409950</v>
       </c>
@@ -21103,7 +21117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1896287</v>
       </c>
@@ -21132,7 +21146,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1896288</v>
       </c>
@@ -21161,7 +21175,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1896289</v>
       </c>
@@ -21187,7 +21201,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1896290</v>
       </c>
@@ -21213,7 +21227,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1896291</v>
       </c>
@@ -21239,7 +21253,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1896292</v>
       </c>
@@ -21265,7 +21279,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1896293</v>
       </c>
@@ -21291,7 +21305,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1896294</v>
       </c>
@@ -21317,7 +21331,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1896295</v>
       </c>
@@ -21346,7 +21360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1896296</v>
       </c>
@@ -21381,20 +21395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>693</v>
       </c>
@@ -21402,7 +21416,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21410,7 +21424,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21418,7 +21432,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21426,7 +21440,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21434,7 +21448,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21442,7 +21456,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21450,7 +21464,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21458,7 +21472,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21466,7 +21480,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21474,7 +21488,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21482,7 +21496,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21490,7 +21504,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21498,7 +21512,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21506,7 +21520,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>47</v>
       </c>
@@ -21514,7 +21528,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21522,7 +21536,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21530,7 +21544,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21538,7 +21552,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21546,7 +21560,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21554,7 +21568,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21562,7 +21576,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21570,7 +21584,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -21578,7 +21592,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -21586,7 +21600,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -21594,7 +21608,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -21602,7 +21616,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -21610,7 +21624,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -21618,7 +21632,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -21626,7 +21640,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -21634,7 +21648,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -21642,7 +21656,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -21650,7 +21664,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -21658,7 +21672,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -21666,7 +21680,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -21674,7 +21688,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -21682,7 +21696,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -21690,7 +21704,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -21698,7 +21712,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -21706,7 +21720,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -21714,7 +21728,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -21722,7 +21736,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -21730,7 +21744,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -21738,7 +21752,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -21746,7 +21760,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -21754,7 +21768,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -21762,7 +21776,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -21770,7 +21784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
@@ -21784,21 +21798,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>695</v>
       </c>
@@ -21809,7 +21823,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4626</v>
       </c>
@@ -21820,7 +21834,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4629</v>
       </c>
@@ -21831,7 +21845,7 @@
         <v>42711</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4631</v>
       </c>
@@ -21842,7 +21856,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4633</v>
       </c>
@@ -21853,7 +21867,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4635</v>
       </c>
@@ -21864,7 +21878,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4637</v>
       </c>
@@ -21875,7 +21889,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4639</v>
       </c>
@@ -21886,7 +21900,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4642</v>
       </c>
@@ -21897,7 +21911,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4644</v>
       </c>
@@ -21908,7 +21922,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4645</v>
       </c>
@@ -21919,7 +21933,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4646</v>
       </c>
@@ -21930,7 +21944,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12380</v>
       </c>
@@ -21941,7 +21955,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12381</v>
       </c>
@@ -21952,7 +21966,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12382</v>
       </c>
@@ -21963,7 +21977,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12383</v>
       </c>
@@ -21974,7 +21988,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12384</v>
       </c>
@@ -21985,7 +21999,7 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12385</v>
       </c>
@@ -21996,7 +22010,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>25714</v>
       </c>
@@ -22007,7 +22021,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>27162</v>
       </c>
@@ -22018,7 +22032,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>50397</v>
       </c>
@@ -22029,7 +22043,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>50398</v>
       </c>
@@ -22040,7 +22054,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>65162</v>
       </c>
@@ -22051,7 +22065,7 @@
         <v>42960</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>65163</v>
       </c>
@@ -22062,7 +22076,7 @@
         <v>42960</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>66599</v>
       </c>
@@ -22073,7 +22087,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>70446</v>
       </c>
@@ -22084,7 +22098,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>70449</v>
       </c>
@@ -22095,7 +22109,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>70461</v>
       </c>
@@ -22106,7 +22120,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>70462</v>
       </c>
@@ -22117,7 +22131,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>71176</v>
       </c>
@@ -22128,7 +22142,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>242266</v>
       </c>
@@ -22139,7 +22153,7 @@
         <v>41844</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>524958</v>
       </c>
